--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha5</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H2">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I2">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J2">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,42 +552,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0002846666666666666</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N2">
-        <v>0.0008539999999999999</v>
+        <v>0.034085</v>
       </c>
       <c r="O2">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0005778800704444443</v>
+        <v>0.00130566001</v>
       </c>
       <c r="R2">
-        <v>0.005200920634</v>
+        <v>0.01175094009</v>
       </c>
       <c r="S2">
-        <v>0.001164476250188366</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="T2">
-        <v>0.001164476250188366</v>
+        <v>0.04640425382421801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,72 +602,72 @@
         <v>6.090071</v>
       </c>
       <c r="I3">
-        <v>0.8776223887075381</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J3">
-        <v>0.8776223887075382</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.214258</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N3">
-        <v>0.642774</v>
+        <v>0.034085</v>
       </c>
       <c r="O3">
-        <v>0.9986731466002101</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.99867314660021</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4349488107726666</v>
+        <v>0.02306445222611111</v>
       </c>
       <c r="R3">
-        <v>3.914539296954</v>
+        <v>0.207580070035</v>
       </c>
       <c r="S3">
-        <v>0.8764579124573497</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="T3">
-        <v>0.8764579124573497</v>
+        <v>0.819730011809897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.283071</v>
+        <v>0.3315123333333334</v>
       </c>
       <c r="H4">
-        <v>0.849213</v>
+        <v>0.994537</v>
       </c>
       <c r="I4">
-        <v>0.1223776112924619</v>
+        <v>0.133865734365885</v>
       </c>
       <c r="J4">
-        <v>0.1223776112924619</v>
+        <v>0.133865734365885</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,90 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0002846666666666666</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N4">
-        <v>0.0008539999999999999</v>
+        <v>0.034085</v>
       </c>
       <c r="O4">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>8.058087799999999E-05</v>
+        <v>0.003766532627222222</v>
       </c>
       <c r="R4">
-        <v>0.0007252279019999999</v>
+        <v>0.03389879364499999</v>
       </c>
       <c r="S4">
-        <v>0.0001623771496015749</v>
+        <v>0.133865734365885</v>
       </c>
       <c r="T4">
-        <v>0.0001623771496015749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.283071</v>
-      </c>
-      <c r="H5">
-        <v>0.849213</v>
-      </c>
-      <c r="I5">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="J5">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.214258</v>
-      </c>
-      <c r="N5">
-        <v>0.642774</v>
-      </c>
-      <c r="O5">
-        <v>0.9986731466002101</v>
-      </c>
-      <c r="P5">
-        <v>0.99867314660021</v>
-      </c>
-      <c r="Q5">
-        <v>0.060650226318</v>
-      </c>
-      <c r="R5">
-        <v>0.545852036862</v>
-      </c>
-      <c r="S5">
-        <v>0.1222152341428603</v>
-      </c>
-      <c r="T5">
-        <v>0.1222152341428603</v>
+        <v>0.133865734365885</v>
       </c>
     </row>
   </sheetData>
